--- a/output/0/tRNA-Asp-GTC-2-5.xlsx
+++ b/output/0/tRNA-Asp-GTC-2-5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
   <si>
     <t>chr1</t>
   </si>
@@ -324,72 +324,6 @@
   </si>
   <si>
     <t>47</t>
-  </si>
-  <si>
-    <t>161440381</t>
-  </si>
-  <si>
-    <t>161440404</t>
-  </si>
-  <si>
-    <t>161440384</t>
-  </si>
-  <si>
-    <t>GGCGGGCGGCGGGCGGCGGG</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>18% (37)</t>
-  </si>
-  <si>
-    <t>97% (82)</t>
-  </si>
-  <si>
-    <t>161440407</t>
-  </si>
-  <si>
-    <t>161440387</t>
-  </si>
-  <si>
-    <t>GGTGGCGGGCGGCGGGCGGC</t>
-  </si>
-  <si>
-    <t>94% (74)</t>
-  </si>
-  <si>
-    <t>161440385</t>
-  </si>
-  <si>
-    <t>161440408</t>
-  </si>
-  <si>
-    <t>161440388</t>
-  </si>
-  <si>
-    <t>GGGTGGCGGGCGGCGGGCGG</t>
-  </si>
-  <si>
-    <t>2% (20)</t>
-  </si>
-  <si>
-    <t>100% (106)</t>
-  </si>
-  <si>
-    <t>161440411</t>
-  </si>
-  <si>
-    <t>161440391</t>
-  </si>
-  <si>
-    <t>GGCGGGTGGCGGGCGGCGGG</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>99% (88)</t>
   </si>
 </sst>
 </file>
@@ -434,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1266,242 +1200,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O18" t="s">
-        <v>125</v>
-      </c>
-      <c r="P18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
